--- a/Associate Solutions Architect/문제출제/문제출제.xlsx
+++ b/Associate Solutions Architect/문제출제/문제출제.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yongssol\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yongssol\Documents\GitHub\aws-certification\Associate Solutions Architect\문제출제\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -538,64 +538,65 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다음</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>어떤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문제때문일까</t>
+      <t>.
+ELB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에서는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어떠한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작업이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행될까</t>
     </r>
     <r>
       <rPr>
@@ -797,12 +798,12 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1085,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1108,11 +1109,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1148,11 +1149,11 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -1188,11 +1189,11 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
@@ -1228,11 +1229,11 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
@@ -1268,11 +1269,11 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
@@ -1308,11 +1309,11 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
     </row>
     <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
@@ -1348,11 +1349,11 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
     </row>
     <row r="30" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
@@ -1361,7 +1362,7 @@
       <c r="B30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="12" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1388,11 +1389,11 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
     </row>
     <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
@@ -1428,11 +1429,11 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
     </row>
     <row r="38" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
@@ -1468,11 +1469,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
     </row>
     <row r="42" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
@@ -1508,11 +1509,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
     </row>
     <row r="46" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
